--- a/DATA/FRA_SELL_IN_MAPPING.xlsx
+++ b/DATA/FRA_SELL_IN_MAPPING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fhans/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1250D7B2-A653-0048-AF10-0EF40A986F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA9AB68-F21E-3D46-8AD0-24152A6C6B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,15 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{D979AB12-D57C-415C-9128-278D20CD77E5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{B755D651-8BFC-4ADB-96F3-AFE13C57B285}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{CE17EF63-F855-473D-A44C-292E9CF2501B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{B755D651-8BFC-4ADB-96F3-AFE13C57B285}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{D979AB12-D57C-415C-9128-278D20CD77E5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="24">
   <si>
     <t>FISCAL_YEAR</t>
   </si>
@@ -375,10 +375,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -716,7 +716,7 @@
     </row>
     <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B15" s="2">
         <v>-1</v>
@@ -725,21 +725,21 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2">
-        <v>1227125</v>
+        <v>1084102.1100000001</v>
       </c>
       <c r="G15" s="2">
-        <v>22178000</v>
+        <v>18215190</v>
       </c>
       <c r="H15" s="2">
-        <v>5742945</v>
+        <v>4881676.0617000004</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B16" s="2">
         <v>-1</v>
@@ -748,21 +748,21 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
-        <v>3124653</v>
+        <v>2376639.62</v>
       </c>
       <c r="G16" s="2">
-        <v>23140000</v>
+        <v>18297480</v>
       </c>
       <c r="H16" s="2">
-        <v>4936951.74</v>
+        <v>3568437.4391999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B17" s="2">
         <v>-1</v>
@@ -771,21 +771,21 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
-        <v>10895012</v>
+        <v>9927316.6500000004</v>
       </c>
       <c r="G17" s="2">
-        <v>64258000</v>
+        <v>57978500</v>
       </c>
       <c r="H17" s="2">
-        <v>19937871.960000001</v>
+        <v>17968443.136500001</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B18" s="2">
         <v>-1</v>
@@ -794,21 +794,21 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2">
-        <v>306411</v>
+        <v>184534.39999999999</v>
       </c>
       <c r="G18" s="2">
-        <v>1990000</v>
+        <v>1253120</v>
       </c>
       <c r="H18" s="2">
-        <v>508642.26</v>
+        <v>299724.23249999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B19" s="2">
         <v>-1</v>
@@ -817,21 +817,21 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
-        <v>1185199</v>
+        <v>1181643.19</v>
       </c>
       <c r="G19" s="2">
-        <v>24089000</v>
+        <v>24727500</v>
       </c>
       <c r="H19" s="2">
-        <v>3437077.1</v>
+        <v>3248869.5180000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B20" s="2">
         <v>-1</v>
@@ -840,21 +840,21 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2">
-        <v>10276642</v>
+        <v>9512657.6999999993</v>
       </c>
       <c r="G20" s="2">
-        <v>52691000</v>
+        <v>48800700</v>
       </c>
       <c r="H20" s="2">
-        <v>17778590.66</v>
+        <v>16266644.666999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B21" s="2">
         <v>-1</v>
@@ -863,21 +863,21 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2">
-        <v>2214320</v>
+        <v>2047604.79</v>
       </c>
       <c r="G21" s="2">
-        <v>52609000</v>
+        <v>48168890</v>
       </c>
       <c r="H21" s="2">
-        <v>32528360.800000001</v>
+        <v>28819638.5352</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B22" s="2">
         <v>-1</v>
@@ -886,21 +886,21 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2">
-        <v>3282472</v>
+        <v>2339486.8199999998</v>
       </c>
       <c r="G22" s="2">
-        <v>24394000</v>
+        <v>16347240</v>
       </c>
       <c r="H22" s="2">
-        <v>7287087.8399999999</v>
+        <v>5287240.2132000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B23" s="2">
         <v>-1</v>
@@ -909,21 +909,21 @@
         <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
-        <v>1679043</v>
+        <v>1548797.82</v>
       </c>
       <c r="G23" s="2">
-        <v>17644000</v>
+        <v>16543800</v>
       </c>
       <c r="H23" s="2">
-        <v>3358086</v>
+        <v>3248145.4495999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B24" s="2">
         <v>-1</v>
@@ -932,21 +932,21 @@
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2">
-        <v>499294</v>
+        <v>438159.54</v>
       </c>
       <c r="G24" s="2">
-        <v>3833000</v>
+        <v>3602060</v>
       </c>
       <c r="H24" s="2">
-        <v>1003580.94</v>
+        <v>806213.55359999998</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B25" s="2">
         <v>-1</v>
@@ -955,21 +955,21 @@
         <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F25" s="2">
-        <v>6249496</v>
+        <v>5893164.4800000004</v>
       </c>
       <c r="G25" s="2">
-        <v>22201000</v>
+        <v>21165520</v>
       </c>
       <c r="H25" s="2">
-        <v>7124425.4400000004</v>
+        <v>6373489.0687999995</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B26" s="2">
         <v>-1</v>
@@ -978,21 +978,21 @@
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F26" s="2">
-        <v>29599822</v>
+        <v>28419389.190000001</v>
       </c>
       <c r="G26" s="2">
-        <v>138143000</v>
+        <v>131967560</v>
       </c>
       <c r="H26" s="2">
-        <v>30487816.66</v>
+        <v>28456059.369600002</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B27" s="2">
         <v>-1</v>
@@ -1001,21 +1001,21 @@
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2">
-        <v>3601668</v>
+        <v>3514867.2</v>
       </c>
       <c r="G27" s="2">
-        <v>17225000</v>
+        <v>16984320</v>
       </c>
       <c r="H27" s="2">
-        <v>6086818.9199999999</v>
+        <v>5426076.2400000002</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B28" s="2">
         <v>-1</v>
@@ -1027,36 +1027,36 @@
         <v>9</v>
       </c>
       <c r="F28" s="2">
-        <v>1444196</v>
+        <v>1227125</v>
       </c>
       <c r="G28" s="2">
-        <v>25979000</v>
+        <v>22178000</v>
       </c>
       <c r="H28" s="2">
-        <v>6701069.4400000004</v>
+        <v>5742945</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B29" s="2">
         <v>-1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F29" s="2">
-        <v>1308000</v>
+        <v>3124653</v>
       </c>
       <c r="G29" s="2">
-        <v>22481000</v>
+        <v>23140000</v>
       </c>
       <c r="H29" s="2">
-        <v>5859840</v>
+        <v>4936951.74</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1084,48 +1084,48 @@
     </row>
     <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B31" s="2">
         <v>-1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="2">
-        <v>3504612</v>
+        <v>10895012</v>
       </c>
       <c r="G31" s="2">
-        <v>27004000</v>
+        <v>64258000</v>
       </c>
       <c r="H31" s="2">
-        <v>5817655.9199999999</v>
+        <v>19937871.960000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B32" s="2">
         <v>-1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2">
-        <v>2889000</v>
+        <v>306411</v>
       </c>
       <c r="G32" s="2">
-        <v>22039000</v>
+        <v>1990000</v>
       </c>
       <c r="H32" s="2">
-        <v>4449060</v>
+        <v>508642.26</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1153,48 +1153,48 @@
     </row>
     <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B34" s="2">
         <v>-1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="2">
-        <v>11178740</v>
+        <v>1185199</v>
       </c>
       <c r="G34" s="2">
-        <v>66794000</v>
+        <v>24089000</v>
       </c>
       <c r="H34" s="2">
-        <v>19674582.399999999</v>
+        <v>3437077.1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B35" s="2">
         <v>-1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2">
-        <v>10640000</v>
+        <v>10276642</v>
       </c>
       <c r="G35" s="2">
-        <v>63683000</v>
+        <v>52691000</v>
       </c>
       <c r="H35" s="2">
-        <v>18620000</v>
+        <v>17778590.66</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1222,48 +1222,48 @@
     </row>
     <row r="37" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B37" s="2">
         <v>-1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="2">
-        <v>266335</v>
+        <v>2214320</v>
       </c>
       <c r="G37" s="2">
-        <v>1971000</v>
+        <v>52609000</v>
       </c>
       <c r="H37" s="2">
-        <v>426136</v>
+        <v>32528360.800000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B38" s="2">
         <v>-1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2">
-        <v>171000</v>
+        <v>3282472</v>
       </c>
       <c r="G38" s="2">
-        <v>1269000</v>
+        <v>24394000</v>
       </c>
       <c r="H38" s="2">
-        <v>266760</v>
+        <v>7287087.8399999999</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1291,48 +1291,48 @@
     </row>
     <row r="40" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B40" s="2">
         <v>-1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="2">
-        <v>1298298</v>
+        <v>1679043</v>
       </c>
       <c r="G40" s="2">
-        <v>26983000</v>
+        <v>17644000</v>
       </c>
       <c r="H40" s="2">
-        <v>3778047.18</v>
+        <v>3358086</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B41" s="2">
         <v>-1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2">
-        <v>1187000</v>
+        <v>499294</v>
       </c>
       <c r="G41" s="2">
-        <v>24204000</v>
+        <v>3833000</v>
       </c>
       <c r="H41" s="2">
-        <v>3418560</v>
+        <v>1003580.94</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1360,48 +1360,48 @@
     </row>
     <row r="43" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B43" s="2">
         <v>-1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="2">
-        <v>9733033</v>
+        <v>6249496</v>
       </c>
       <c r="G43" s="2">
-        <v>47879000</v>
+        <v>22201000</v>
       </c>
       <c r="H43" s="2">
-        <v>16059504.449999999</v>
+        <v>7124425.4400000004</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B44" s="2">
         <v>-1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2">
-        <v>8893000</v>
+        <v>29599822</v>
       </c>
       <c r="G44" s="2">
-        <v>43258000</v>
+        <v>138143000</v>
       </c>
       <c r="H44" s="2">
-        <v>14584520</v>
+        <v>30487816.66</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1429,48 +1429,48 @@
     </row>
     <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B46" s="2">
         <v>-1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="2">
-        <v>2586891</v>
+        <v>3601668</v>
       </c>
       <c r="G46" s="2">
-        <v>61207000</v>
+        <v>17225000</v>
       </c>
       <c r="H46" s="2">
-        <v>39062054.100000001</v>
+        <v>6086818.9199999999</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B47" s="2">
         <v>-1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F47" s="2">
-        <v>1983000</v>
+        <v>1116683.75</v>
       </c>
       <c r="G47" s="2">
-        <v>46909000</v>
+        <v>19294860</v>
       </c>
       <c r="H47" s="2">
-        <v>29784660</v>
+        <v>4996362.1500000004</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1495,48 +1495,48 @@
     </row>
     <row r="49" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B49" s="2">
         <v>-1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F49" s="2">
-        <v>3048433</v>
+        <v>2562215.46</v>
       </c>
       <c r="G49" s="2">
-        <v>22317000</v>
+        <v>18974800</v>
       </c>
       <c r="H49" s="2">
-        <v>6645583.9400000004</v>
+        <v>3752083.3223999999</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B50" s="2">
         <v>-1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="2">
-        <v>2019000</v>
+        <v>10350261.4</v>
       </c>
       <c r="G50" s="2">
-        <v>14056000</v>
+        <v>61045100</v>
       </c>
       <c r="H50" s="2">
-        <v>4381230</v>
+        <v>18940978.362</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1564,48 +1564,48 @@
     </row>
     <row r="52" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B52" s="2">
         <v>-1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F52" s="2">
-        <v>1680754</v>
+        <v>196103.04000000001</v>
       </c>
       <c r="G52" s="2">
-        <v>16951000</v>
+        <v>1273600</v>
       </c>
       <c r="H52" s="2">
-        <v>3344700.46</v>
+        <v>320444.6238</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B53" s="2">
         <v>-1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="2">
-        <v>1564000</v>
+        <v>1078531.0900000001</v>
       </c>
       <c r="G53" s="2">
-        <v>15434000</v>
+        <v>21680100</v>
       </c>
       <c r="H53" s="2">
-        <v>3065440</v>
+        <v>3093369.39</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1633,48 +1633,48 @@
     </row>
     <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B55" s="2">
         <v>-1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F55" s="2">
-        <v>542010</v>
+        <v>9351744.2200000007</v>
       </c>
       <c r="G55" s="2">
-        <v>4075000</v>
+        <v>47421900</v>
       </c>
       <c r="H55" s="2">
-        <v>1046079.3</v>
+        <v>16178517.500600001</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B56" s="2">
         <v>-1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="2">
-        <v>422000</v>
+        <v>1705026.4</v>
       </c>
       <c r="G56" s="2">
-        <v>3133000</v>
+        <v>40508930</v>
       </c>
       <c r="H56" s="2">
-        <v>814460</v>
+        <v>24721554.208000001</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1702,48 +1702,48 @@
     </row>
     <row r="58" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B58" s="2">
         <v>-1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F58" s="2">
-        <v>5626221</v>
+        <v>2166431.52</v>
       </c>
       <c r="G58" s="2">
-        <v>20226000</v>
+        <v>15368220</v>
       </c>
       <c r="H58" s="2">
-        <v>6357629.7300000004</v>
+        <v>4809477.9743999997</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B59" s="2">
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F59" s="2">
-        <v>5210000</v>
+        <v>1561509.99</v>
       </c>
       <c r="G59" s="2">
-        <v>18610000</v>
+        <v>16056040</v>
       </c>
       <c r="H59" s="2">
-        <v>5991500</v>
+        <v>3089439.12</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1771,48 +1771,48 @@
     </row>
     <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B61" s="2">
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F61" s="2">
-        <v>30322887</v>
+        <v>389449.32</v>
       </c>
       <c r="G61" s="2">
-        <v>135882000</v>
+        <v>2951410</v>
       </c>
       <c r="H61" s="2">
-        <v>33658404.57</v>
+        <v>782793.13320000004</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B62" s="2">
         <v>-1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F62" s="2">
-        <v>28295000</v>
+        <v>5812031.2800000003</v>
       </c>
       <c r="G62" s="2">
-        <v>125114000</v>
+        <v>20424920</v>
       </c>
       <c r="H62" s="2">
-        <v>32539250</v>
+        <v>6696959.9135999996</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1840,30 +1840,30 @@
     </row>
     <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B64" s="2">
         <v>-1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F64" s="2">
-        <v>3464582</v>
+        <v>27527834.460000001</v>
       </c>
       <c r="G64" s="2">
-        <v>16660000</v>
+        <v>127091560</v>
       </c>
       <c r="H64" s="2">
-        <v>5612622.8399999999</v>
+        <v>29573182.1602</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B65" s="2">
         <v>-1</v>
@@ -1875,13 +1875,13 @@
         <v>22</v>
       </c>
       <c r="F65" s="2">
-        <v>3338000</v>
+        <v>3457601.28</v>
       </c>
       <c r="G65" s="2">
-        <v>16034000</v>
+        <v>16536000</v>
       </c>
       <c r="H65" s="2">
-        <v>5307420</v>
+        <v>5782477.9740000004</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1909,7 +1909,7 @@
     </row>
     <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B67" s="2">
         <v>-1</v>
@@ -1918,16 +1918,16 @@
         <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F67" s="2">
-        <v>1084102.1100000001</v>
+        <v>1444196</v>
       </c>
       <c r="G67" s="2">
-        <v>18215190</v>
+        <v>25979000</v>
       </c>
       <c r="H67" s="2">
-        <v>4881676.0617000004</v>
+        <v>6701069.4400000004</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1955,7 +1955,7 @@
     </row>
     <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B69" s="2">
         <v>-1</v>
@@ -1967,13 +1967,13 @@
         <v>22</v>
       </c>
       <c r="F69" s="2">
-        <v>1116683.75</v>
+        <v>1308000</v>
       </c>
       <c r="G69" s="2">
-        <v>19294860</v>
+        <v>22481000</v>
       </c>
       <c r="H69" s="2">
-        <v>4996362.1500000004</v>
+        <v>5859840</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2001,7 +2001,7 @@
     </row>
     <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B71" s="2">
         <v>-1</v>
@@ -2010,16 +2010,16 @@
         <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F71" s="2">
-        <v>2376639.62</v>
+        <v>3504612</v>
       </c>
       <c r="G71" s="2">
-        <v>18297480</v>
+        <v>27004000</v>
       </c>
       <c r="H71" s="2">
-        <v>3568437.4391999999</v>
+        <v>5817655.9199999999</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2047,7 +2047,7 @@
     </row>
     <row r="73" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B73" s="2">
         <v>-1</v>
@@ -2059,13 +2059,13 @@
         <v>22</v>
       </c>
       <c r="F73" s="2">
-        <v>2562215.46</v>
+        <v>2889000</v>
       </c>
       <c r="G73" s="2">
-        <v>18974800</v>
+        <v>22039000</v>
       </c>
       <c r="H73" s="2">
-        <v>3752083.3223999999</v>
+        <v>4449060</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2093,7 +2093,7 @@
     </row>
     <row r="75" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B75" s="2">
         <v>-1</v>
@@ -2102,16 +2102,16 @@
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F75" s="2">
-        <v>9927316.6500000004</v>
+        <v>11178740</v>
       </c>
       <c r="G75" s="2">
-        <v>57978500</v>
+        <v>66794000</v>
       </c>
       <c r="H75" s="2">
-        <v>17968443.136500001</v>
+        <v>19674582.399999999</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2139,7 +2139,7 @@
     </row>
     <row r="77" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B77" s="2">
         <v>-1</v>
@@ -2151,13 +2151,13 @@
         <v>22</v>
       </c>
       <c r="F77" s="2">
-        <v>10350261.4</v>
+        <v>10640000</v>
       </c>
       <c r="G77" s="2">
-        <v>61045100</v>
+        <v>63683000</v>
       </c>
       <c r="H77" s="2">
-        <v>18940978.362</v>
+        <v>18620000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2185,7 +2185,7 @@
     </row>
     <row r="79" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B79" s="2">
         <v>-1</v>
@@ -2194,16 +2194,16 @@
         <v>12</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F79" s="2">
-        <v>184534.39999999999</v>
+        <v>266335</v>
       </c>
       <c r="G79" s="2">
-        <v>1253120</v>
+        <v>1971000</v>
       </c>
       <c r="H79" s="2">
-        <v>299724.23249999998</v>
+        <v>426136</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2231,7 +2231,7 @@
     </row>
     <row r="81" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B81" s="2">
         <v>-1</v>
@@ -2243,13 +2243,13 @@
         <v>22</v>
       </c>
       <c r="F81" s="2">
-        <v>196103.04000000001</v>
+        <v>171000</v>
       </c>
       <c r="G81" s="2">
-        <v>1273600</v>
+        <v>1269000</v>
       </c>
       <c r="H81" s="2">
-        <v>320444.6238</v>
+        <v>266760</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2277,7 +2277,7 @@
     </row>
     <row r="83" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B83" s="2">
         <v>-1</v>
@@ -2286,16 +2286,16 @@
         <v>13</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F83" s="2">
-        <v>1181643.19</v>
+        <v>1298298</v>
       </c>
       <c r="G83" s="2">
-        <v>24727500</v>
+        <v>26983000</v>
       </c>
       <c r="H83" s="2">
-        <v>3248869.5180000002</v>
+        <v>3778047.18</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2323,7 +2323,7 @@
     </row>
     <row r="85" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B85" s="2">
         <v>-1</v>
@@ -2335,13 +2335,13 @@
         <v>22</v>
       </c>
       <c r="F85" s="2">
-        <v>1078531.0900000001</v>
+        <v>1187000</v>
       </c>
       <c r="G85" s="2">
-        <v>21680100</v>
+        <v>24204000</v>
       </c>
       <c r="H85" s="2">
-        <v>3093369.39</v>
+        <v>3418560</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2369,7 +2369,7 @@
     </row>
     <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B87" s="2">
         <v>-1</v>
@@ -2378,16 +2378,16 @@
         <v>14</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F87" s="2">
-        <v>9512657.6999999993</v>
+        <v>9733033</v>
       </c>
       <c r="G87" s="2">
-        <v>48800700</v>
+        <v>47879000</v>
       </c>
       <c r="H87" s="2">
-        <v>16266644.666999999</v>
+        <v>16059504.449999999</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2415,7 +2415,7 @@
     </row>
     <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B89" s="2">
         <v>-1</v>
@@ -2427,13 +2427,13 @@
         <v>22</v>
       </c>
       <c r="F89" s="2">
-        <v>9351744.2200000007</v>
+        <v>8893000</v>
       </c>
       <c r="G89" s="2">
-        <v>47421900</v>
+        <v>43258000</v>
       </c>
       <c r="H89" s="2">
-        <v>16178517.500600001</v>
+        <v>14584520</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2461,7 +2461,7 @@
     </row>
     <row r="91" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B91" s="2">
         <v>-1</v>
@@ -2470,16 +2470,16 @@
         <v>15</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F91" s="2">
-        <v>2047604.79</v>
+        <v>2586891</v>
       </c>
       <c r="G91" s="2">
-        <v>48168890</v>
+        <v>61207000</v>
       </c>
       <c r="H91" s="2">
-        <v>28819638.5352</v>
+        <v>39062054.100000001</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2504,7 +2504,7 @@
     </row>
     <row r="93" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B93" s="2">
         <v>-1</v>
@@ -2516,13 +2516,13 @@
         <v>22</v>
       </c>
       <c r="F93" s="2">
-        <v>1705026.4</v>
+        <v>1983000</v>
       </c>
       <c r="G93" s="2">
-        <v>40508930</v>
+        <v>46909000</v>
       </c>
       <c r="H93" s="2">
-        <v>24721554.208000001</v>
+        <v>29784660</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2547,7 +2547,7 @@
     </row>
     <row r="95" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B95" s="2">
         <v>-1</v>
@@ -2556,16 +2556,16 @@
         <v>16</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F95" s="2">
-        <v>2339486.8199999998</v>
+        <v>3048433</v>
       </c>
       <c r="G95" s="2">
-        <v>16347240</v>
+        <v>22317000</v>
       </c>
       <c r="H95" s="2">
-        <v>5287240.2132000001</v>
+        <v>6645583.9400000004</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2593,7 +2593,7 @@
     </row>
     <row r="97" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B97" s="2">
         <v>-1</v>
@@ -2605,13 +2605,13 @@
         <v>22</v>
       </c>
       <c r="F97" s="2">
-        <v>2166431.52</v>
+        <v>2019000</v>
       </c>
       <c r="G97" s="2">
-        <v>15368220</v>
+        <v>14056000</v>
       </c>
       <c r="H97" s="2">
-        <v>4809477.9743999997</v>
+        <v>4381230</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2639,7 +2639,7 @@
     </row>
     <row r="99" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B99" s="2">
         <v>-1</v>
@@ -2648,16 +2648,16 @@
         <v>17</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F99" s="2">
-        <v>1548797.82</v>
+        <v>1680754</v>
       </c>
       <c r="G99" s="2">
-        <v>16543800</v>
+        <v>16951000</v>
       </c>
       <c r="H99" s="2">
-        <v>3248145.4495999999</v>
+        <v>3344700.46</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2685,7 +2685,7 @@
     </row>
     <row r="101" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B101" s="2">
         <v>-1</v>
@@ -2697,13 +2697,13 @@
         <v>22</v>
       </c>
       <c r="F101" s="2">
-        <v>1561509.99</v>
+        <v>1564000</v>
       </c>
       <c r="G101" s="2">
-        <v>16056040</v>
+        <v>15434000</v>
       </c>
       <c r="H101" s="2">
-        <v>3089439.12</v>
+        <v>3065440</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2731,7 +2731,7 @@
     </row>
     <row r="103" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B103" s="2">
         <v>-1</v>
@@ -2740,16 +2740,16 @@
         <v>18</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F103" s="2">
-        <v>438159.54</v>
+        <v>542010</v>
       </c>
       <c r="G103" s="2">
-        <v>3602060</v>
+        <v>4075000</v>
       </c>
       <c r="H103" s="2">
-        <v>806213.55359999998</v>
+        <v>1046079.3</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2777,7 +2777,7 @@
     </row>
     <row r="105" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B105" s="2">
         <v>-1</v>
@@ -2789,13 +2789,13 @@
         <v>22</v>
       </c>
       <c r="F105" s="2">
-        <v>389449.32</v>
+        <v>422000</v>
       </c>
       <c r="G105" s="2">
-        <v>2951410</v>
+        <v>3133000</v>
       </c>
       <c r="H105" s="2">
-        <v>782793.13320000004</v>
+        <v>814460</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2823,7 +2823,7 @@
     </row>
     <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B107" s="2">
         <v>-1</v>
@@ -2832,16 +2832,16 @@
         <v>19</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F107" s="2">
-        <v>5893164.4800000004</v>
+        <v>5626221</v>
       </c>
       <c r="G107" s="2">
-        <v>21165520</v>
+        <v>20226000</v>
       </c>
       <c r="H107" s="2">
-        <v>6373489.0687999995</v>
+        <v>6357629.7300000004</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2869,7 +2869,7 @@
     </row>
     <row r="109" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B109" s="2">
         <v>-1</v>
@@ -2881,13 +2881,13 @@
         <v>22</v>
       </c>
       <c r="F109" s="2">
-        <v>5812031.2800000003</v>
+        <v>5210000</v>
       </c>
       <c r="G109" s="2">
-        <v>20424920</v>
+        <v>18610000</v>
       </c>
       <c r="H109" s="2">
-        <v>6696959.9135999996</v>
+        <v>5991500</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2915,7 +2915,7 @@
     </row>
     <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B111" s="2">
         <v>-1</v>
@@ -2924,16 +2924,16 @@
         <v>20</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F111" s="2">
-        <v>28419389.190000001</v>
+        <v>30322887</v>
       </c>
       <c r="G111" s="2">
-        <v>131967560</v>
+        <v>135882000</v>
       </c>
       <c r="H111" s="2">
-        <v>28456059.369600002</v>
+        <v>33658404.57</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2961,7 +2961,7 @@
     </row>
     <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B113" s="2">
         <v>-1</v>
@@ -2973,13 +2973,13 @@
         <v>22</v>
       </c>
       <c r="F113" s="2">
-        <v>27527834.460000001</v>
+        <v>28295000</v>
       </c>
       <c r="G113" s="2">
-        <v>127091560</v>
+        <v>125114000</v>
       </c>
       <c r="H113" s="2">
-        <v>29573182.1602</v>
+        <v>32539250</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -3007,7 +3007,7 @@
     </row>
     <row r="115" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B115" s="2">
         <v>-1</v>
@@ -3016,16 +3016,16 @@
         <v>21</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F115" s="2">
-        <v>3514867.2</v>
+        <v>3464582</v>
       </c>
       <c r="G115" s="2">
-        <v>16984320</v>
+        <v>16660000</v>
       </c>
       <c r="H115" s="2">
-        <v>5426076.2400000002</v>
+        <v>5612622.8399999999</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -3053,7 +3053,7 @@
     </row>
     <row r="117" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B117" s="2">
         <v>-1</v>
@@ -3065,13 +3065,13 @@
         <v>22</v>
       </c>
       <c r="F117" s="2">
-        <v>3457601.28</v>
+        <v>3338000</v>
       </c>
       <c r="G117" s="2">
-        <v>16536000</v>
+        <v>16034000</v>
       </c>
       <c r="H117" s="2">
-        <v>5782477.9740000004</v>
+        <v>5307420</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -3095,6 +3095,604 @@
       </c>
       <c r="H118" s="2">
         <v>182604.56760000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1191321</v>
+      </c>
+      <c r="G119" s="2">
+        <v>20937000</v>
+      </c>
+      <c r="H119" s="2">
+        <v>5611121.9100000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="2">
+        <v>2898341</v>
+      </c>
+      <c r="G120" s="2">
+        <v>22314000</v>
+      </c>
+      <c r="H120" s="2">
+        <v>4695312.42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="2">
+        <v>10449807</v>
+      </c>
+      <c r="G121" s="2">
+        <v>61030000</v>
+      </c>
+      <c r="H121" s="2">
+        <v>18914150.670000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="2">
+        <v>288335</v>
+      </c>
+      <c r="G122" s="2">
+        <v>1958000</v>
+      </c>
+      <c r="H122" s="2">
+        <v>475752.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B123" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1298509</v>
+      </c>
+      <c r="G123" s="2">
+        <v>27475000</v>
+      </c>
+      <c r="H123" s="2">
+        <v>3609855.02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B124" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="2">
+        <v>10453470</v>
+      </c>
+      <c r="G124" s="2">
+        <v>54223000</v>
+      </c>
+      <c r="H124" s="2">
+        <v>17875433.699999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B125" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="2">
+        <v>2659227</v>
+      </c>
+      <c r="G125" s="2">
+        <v>62557000</v>
+      </c>
+      <c r="H125" s="2">
+        <v>37920577.020000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B126" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="2">
+        <v>3544677</v>
+      </c>
+      <c r="G126" s="2">
+        <v>25948000</v>
+      </c>
+      <c r="H126" s="2">
+        <v>8010970.0199999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1665374</v>
+      </c>
+      <c r="G127" s="2">
+        <v>18180000</v>
+      </c>
+      <c r="H127" s="2">
+        <v>3530592.88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="2">
+        <v>561743</v>
+      </c>
+      <c r="G128" s="2">
+        <v>4678000</v>
+      </c>
+      <c r="H128" s="2">
+        <v>1033607.12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="2">
+        <v>6336736</v>
+      </c>
+      <c r="G129" s="2">
+        <v>23006000</v>
+      </c>
+      <c r="H129" s="2">
+        <v>6780307.5199999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B130" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="2">
+        <v>30558483</v>
+      </c>
+      <c r="G130" s="2">
+        <v>143443000</v>
+      </c>
+      <c r="H130" s="2">
+        <v>29336143.68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B131" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="2">
+        <v>3661320</v>
+      </c>
+      <c r="G131" s="2">
+        <v>17692000</v>
+      </c>
+      <c r="H131" s="2">
+        <v>5711659.2000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B132" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1084102.1100000001</v>
+      </c>
+      <c r="G132" s="2">
+        <v>18215190</v>
+      </c>
+      <c r="H132" s="2">
+        <v>4881676.0617000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B133" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="2">
+        <v>2376639.62</v>
+      </c>
+      <c r="G133" s="2">
+        <v>18297480</v>
+      </c>
+      <c r="H133" s="2">
+        <v>3568437.4391999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B134" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="2">
+        <v>9927316.6500000004</v>
+      </c>
+      <c r="G134" s="2">
+        <v>57978500</v>
+      </c>
+      <c r="H134" s="2">
+        <v>17968443.136500001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B135" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" s="2">
+        <v>184534.39999999999</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1253120</v>
+      </c>
+      <c r="H135" s="2">
+        <v>299724.23249999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B136" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1181643.19</v>
+      </c>
+      <c r="G136" s="2">
+        <v>24727500</v>
+      </c>
+      <c r="H136" s="2">
+        <v>3248869.5180000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B137" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="2">
+        <v>9512657.6999999993</v>
+      </c>
+      <c r="G137" s="2">
+        <v>48800700</v>
+      </c>
+      <c r="H137" s="2">
+        <v>16266644.666999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B138" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="2">
+        <v>2047604.79</v>
+      </c>
+      <c r="G138" s="2">
+        <v>48168890</v>
+      </c>
+      <c r="H138" s="2">
+        <v>28819638.5352</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B139" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" s="2">
+        <v>2339486.8199999998</v>
+      </c>
+      <c r="G139" s="2">
+        <v>16347240</v>
+      </c>
+      <c r="H139" s="2">
+        <v>5287240.2132000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B140" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1548797.82</v>
+      </c>
+      <c r="G140" s="2">
+        <v>16543800</v>
+      </c>
+      <c r="H140" s="2">
+        <v>3248145.4495999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B141" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="2">
+        <v>438159.54</v>
+      </c>
+      <c r="G141" s="2">
+        <v>3602060</v>
+      </c>
+      <c r="H141" s="2">
+        <v>806213.55359999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B142" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="2">
+        <v>5893164.4800000004</v>
+      </c>
+      <c r="G142" s="2">
+        <v>21165520</v>
+      </c>
+      <c r="H142" s="2">
+        <v>6373489.0687999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B143" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="2">
+        <v>28419389.190000001</v>
+      </c>
+      <c r="G143" s="2">
+        <v>131967560</v>
+      </c>
+      <c r="H143" s="2">
+        <v>28456059.369600002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="2">
+        <v>3514867.2</v>
+      </c>
+      <c r="G144" s="2">
+        <v>16984320</v>
+      </c>
+      <c r="H144" s="2">
+        <v>5426076.2400000002</v>
       </c>
     </row>
   </sheetData>
@@ -3105,25 +3703,14 @@
         <filter val="off_trade"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H117">
+      <sortCondition ref="A1:A118"/>
+    </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{CE17EF63-F855-473D-A44C-292E9CF2501B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:H119" xr:uid="{137D8A18-24D5-B446-A9B4-F37512633584}"/>
-    </customSheetView>
-    <customSheetView guid="{B755D651-8BFC-4ADB-96F3-AFE13C57B285}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:H118" xr:uid="{440F31F1-E138-1542-938C-A7221258BFAE}">
-        <filterColumn colId="2">
-          <filters blank="1">
-            <filter val="precious_liquid"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
     <customSheetView guid="{D979AB12-D57C-415C-9128-278D20CD77E5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:H118" xr:uid="{350FE7BD-7000-364C-9AC0-5FAA6D9AEB10}">
+      <autoFilter ref="A1:H118" xr:uid="{889C1696-ABB0-9645-A82D-E7A226DCB8CB}">
         <filterColumn colId="2">
           <filters>
             <filter val="precious_liquid"/>
@@ -3132,6 +3719,20 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{B755D651-8BFC-4ADB-96F3-AFE13C57B285}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:H118" xr:uid="{244971BA-FA3B-2D4A-98AD-EAD7EF86C8B0}">
+        <filterColumn colId="2">
+          <filters blank="1">
+            <filter val="precious_liquid"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{CE17EF63-F855-473D-A44C-292E9CF2501B}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:H119" xr:uid="{948598B4-3008-D445-9779-B5BE80A7FDE0}"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
